--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_3_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_3_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.078847846925941</v>
+        <v>1.078847846925953</v>
       </c>
       <c r="O2">
-        <v>0.9618627255197192</v>
+        <v>0.9618627255196744</v>
       </c>
       <c r="P2">
-        <v>1.05530912685228</v>
+        <v>1.055309126852294</v>
       </c>
       <c r="Q2">
-        <v>26.46268431694229</v>
+        <v>26.46268431694048</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676153</v>
+        <v>-91.5707961367616</v>
       </c>
       <c r="S2">
-        <v>152.8993938557652</v>
+        <v>152.8993938557668</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.058332742123209</v>
+        <v>1.058332742123222</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621026</v>
+        <v>0.4199934651620681</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134003</v>
+        <v>0.8849458407134325</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971095</v>
+        <v>10.36827052970986</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535644</v>
+        <v>-114.9022326535638</v>
       </c>
       <c r="S3">
-        <v>167.570584904511</v>
+        <v>167.5705849045123</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778326</v>
+        <v>0.9909306888778472</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669875</v>
+        <v>0.1679973860669614</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492232</v>
+        <v>0.9204173017492591</v>
       </c>
       <c r="Q4">
-        <v>4.4096204434041</v>
+        <v>4.409620443403311</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490686</v>
+        <v>-114.9022326490648</v>
       </c>
       <c r="S4">
-        <v>175.2518098001975</v>
+        <v>175.2518098001981</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,55 +896,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390301</v>
       </c>
       <c r="D5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390301</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847899</v>
       </c>
       <c r="G5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847899</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039775</v>
+        <v>0.9526279648039921</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057686</v>
+        <v>0.9526279648058056</v>
       </c>
       <c r="Q5">
-        <v>-1.425008225192603E-11</v>
+        <v>-1.479433600185689E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999792</v>
+        <v>-179.999999999979</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679121</v>
+        <v>0.9710601884679267</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568283</v>
+        <v>0.08399869303565946</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509384</v>
+        <v>0.9357190172509749</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886393</v>
+        <v>2.248283018885715</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412656</v>
+        <v>-114.9022326412569</v>
       </c>
       <c r="S6">
-        <v>177.6667554660107</v>
+        <v>177.6667554660111</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097612874371399</v>
+        <v>1.097612874371394</v>
       </c>
       <c r="O2">
-        <v>1.035635625232691</v>
+        <v>1.035635625232665</v>
       </c>
       <c r="P2">
-        <v>1.07075516847179</v>
+        <v>1.070755168471788</v>
       </c>
       <c r="Q2">
-        <v>28.13571929983947</v>
+        <v>28.13571929983877</v>
       </c>
       <c r="R2">
-        <v>-91.691325962866</v>
+        <v>-91.69132596286585</v>
       </c>
       <c r="S2">
-        <v>151.0929640471427</v>
+        <v>151.0929640471434</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.110422696305666</v>
+        <v>1.11042269630566</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619029</v>
+        <v>0.7889914957618752</v>
       </c>
       <c r="P3">
-        <v>0.945100684789272</v>
+        <v>0.9451006847892748</v>
       </c>
       <c r="Q3">
-        <v>20.2470946469427</v>
+        <v>20.24709464694206</v>
       </c>
       <c r="R3">
-        <v>-103.06533213792</v>
+        <v>-103.0653321379197</v>
       </c>
       <c r="S3">
-        <v>156.0082067402618</v>
+        <v>156.0082067402627</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.079151884057173</v>
+        <v>1.079151884057167</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114376</v>
+        <v>0.6610662947114119</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612575</v>
+        <v>0.9321671592612627</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956707</v>
+        <v>17.32147694956645</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854824</v>
+        <v>-103.5752691854819</v>
       </c>
       <c r="S4">
-        <v>159.8377717076659</v>
+        <v>159.8377717076667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,55 +1263,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805894</v>
       </c>
       <c r="D5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805894</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380455</v>
       </c>
       <c r="G5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380455</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>1.059943178513074</v>
+        <v>1.059943178513068</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677859</v>
+        <v>0.5758226890677611</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691395</v>
+        <v>0.9259084304691457</v>
       </c>
       <c r="Q5">
-        <v>15.27863230041748</v>
+        <v>15.2786323004169</v>
       </c>
       <c r="R5">
-        <v>-104.0410782188621</v>
+        <v>-104.0410782188614</v>
       </c>
       <c r="S5">
-        <v>162.4426920027739</v>
+        <v>162.4426920027747</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.069377593873312</v>
+        <v>1.069377593873306</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324072</v>
+        <v>0.6184394066323817</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541841</v>
+        <v>0.9287977660541897</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350175</v>
+        <v>16.30922779350115</v>
       </c>
       <c r="R6">
-        <v>-103.7921223584376</v>
+        <v>-103.792122358437</v>
       </c>
       <c r="S6">
-        <v>161.1358439017222</v>
+        <v>161.1358439017231</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097612874371399</v>
+        <v>1.097612874371394</v>
       </c>
       <c r="O2">
-        <v>1.035635625232691</v>
+        <v>1.035635625232665</v>
       </c>
       <c r="P2">
-        <v>1.07075516847179</v>
+        <v>1.070755168471788</v>
       </c>
       <c r="Q2">
-        <v>28.13571929983947</v>
+        <v>28.13571929983877</v>
       </c>
       <c r="R2">
-        <v>-91.691325962866</v>
+        <v>-91.69132596286585</v>
       </c>
       <c r="S2">
-        <v>151.0929640471427</v>
+        <v>151.0929640471434</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.110422696305666</v>
+        <v>1.11042269630566</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619029</v>
+        <v>0.7889914957618752</v>
       </c>
       <c r="P3">
-        <v>0.945100684789272</v>
+        <v>0.9451006847892748</v>
       </c>
       <c r="Q3">
-        <v>20.2470946469427</v>
+        <v>20.24709464694206</v>
       </c>
       <c r="R3">
-        <v>-103.06533213792</v>
+        <v>-103.0653321379197</v>
       </c>
       <c r="S3">
-        <v>156.0082067402618</v>
+        <v>156.0082067402627</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.079151884057173</v>
+        <v>1.079151884057167</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114376</v>
+        <v>0.6610662947114119</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612575</v>
+        <v>0.9321671592612627</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956707</v>
+        <v>17.32147694956645</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854824</v>
+        <v>-103.5752691854819</v>
       </c>
       <c r="S4">
-        <v>159.8377717076659</v>
+        <v>159.8377717076667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,55 +1630,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805894</v>
       </c>
       <c r="D5">
-        <v>1.628672512805917</v>
+        <v>1.628672512805894</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380455</v>
       </c>
       <c r="G5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380455</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>1.059943178513074</v>
+        <v>1.059943178513068</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677859</v>
+        <v>0.5758226890677611</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691395</v>
+        <v>0.9259084304691457</v>
       </c>
       <c r="Q5">
-        <v>15.27863230041748</v>
+        <v>15.2786323004169</v>
       </c>
       <c r="R5">
-        <v>-104.0410782188621</v>
+        <v>-104.0410782188614</v>
       </c>
       <c r="S5">
-        <v>162.4426920027739</v>
+        <v>162.4426920027747</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.069377593873312</v>
+        <v>1.069377593873306</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324072</v>
+        <v>0.6184394066323817</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541841</v>
+        <v>0.9287977660541897</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350175</v>
+        <v>16.30922779350115</v>
       </c>
       <c r="R6">
-        <v>-103.7921223584376</v>
+        <v>-103.792122358437</v>
       </c>
       <c r="S6">
-        <v>161.1358439017222</v>
+        <v>161.1358439017231</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9929355927218106</v>
+        <v>0.9929355927217803</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842806</v>
+        <v>0.8804584269842339</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608429</v>
+        <v>0.9495696022608352</v>
       </c>
       <c r="Q2">
-        <v>26.27528026615309</v>
+        <v>26.27528026615386</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439107</v>
+        <v>-93.16654538438821</v>
       </c>
       <c r="S2">
-        <v>152.425513590047</v>
+        <v>152.4255135900496</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02139697912874</v>
+        <v>1.021396979128704</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969645</v>
+        <v>0.5037062977969124</v>
       </c>
       <c r="P3">
-        <v>0.7639425556035887</v>
+        <v>0.7639425556035965</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981259</v>
+        <v>12.09779838981346</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883314</v>
+        <v>-121.7925562883276</v>
       </c>
       <c r="S3">
-        <v>163.7271795849222</v>
+        <v>163.727179584925</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215794</v>
+        <v>0.9230804480215457</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277487</v>
+        <v>0.2014825191277086</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965647</v>
+        <v>0.8174473005965769</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802235</v>
+        <v>5.32248358880325</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833983</v>
+        <v>-121.7925562833885</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848741</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,55 +1997,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855752</v>
       </c>
       <c r="D5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855752</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132203</v>
       </c>
       <c r="G5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132203</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886725</v>
+        <v>0.8660254037886392</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890387</v>
+        <v>0.8660254037890522</v>
       </c>
       <c r="Q5">
-        <v>1.923236163978719E-10</v>
+        <v>1.934310506528024E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997995</v>
+        <v>179.9999999998012</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579174</v>
+        <v>0.8935891429578837</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722653</v>
+        <v>0.1007412595722293</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222768</v>
+        <v>0.8405788745222897</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569082</v>
+        <v>2.746170498570141</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748666</v>
+        <v>-121.7925562748467</v>
       </c>
       <c r="S6">
-        <v>177.0804994190644</v>
+        <v>177.0804994190663</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9929355927218106</v>
+        <v>0.9929355927217803</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842806</v>
+        <v>0.8804584269842339</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608429</v>
+        <v>0.9495696022608352</v>
       </c>
       <c r="Q2">
-        <v>26.27528026615309</v>
+        <v>26.27528026615386</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439107</v>
+        <v>-93.16654538438821</v>
       </c>
       <c r="S2">
-        <v>152.425513590047</v>
+        <v>152.4255135900496</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02139697912874</v>
+        <v>1.021396979128704</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969645</v>
+        <v>0.5037062977969124</v>
       </c>
       <c r="P3">
-        <v>0.7639425556035887</v>
+        <v>0.7639425556035965</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981259</v>
+        <v>12.09779838981346</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883314</v>
+        <v>-121.7925562883276</v>
       </c>
       <c r="S3">
-        <v>163.7271795849222</v>
+        <v>163.727179584925</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215794</v>
+        <v>0.9230804480215457</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277487</v>
+        <v>0.2014825191277086</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965647</v>
+        <v>0.8174473005965769</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802235</v>
+        <v>5.32248358880325</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833983</v>
+        <v>-121.7925562833885</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848741</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,55 +2364,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855752</v>
       </c>
       <c r="D5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855752</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132203</v>
       </c>
       <c r="G5">
-        <v>30.09210594132325</v>
+        <v>30.09210594132203</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886725</v>
+        <v>0.8660254037886392</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890387</v>
+        <v>0.8660254037890522</v>
       </c>
       <c r="Q5">
-        <v>1.923236163978719E-10</v>
+        <v>1.934310506528024E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997995</v>
+        <v>179.9999999998012</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579174</v>
+        <v>0.8935891429578837</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722653</v>
+        <v>0.1007412595722293</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222768</v>
+        <v>0.8405788745222897</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569082</v>
+        <v>2.746170498570141</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748666</v>
+        <v>-121.7925562748467</v>
       </c>
       <c r="S6">
-        <v>177.0804994190644</v>
+        <v>177.0804994190663</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000734427743673</v>
+        <v>1.000734427743656</v>
       </c>
       <c r="O2">
-        <v>0.9413695280821804</v>
+        <v>0.9413695280821542</v>
       </c>
       <c r="P2">
-        <v>0.9703704959111742</v>
+        <v>0.9703704959111705</v>
       </c>
       <c r="Q2">
-        <v>28.0357480611579</v>
+        <v>28.03574806115834</v>
       </c>
       <c r="R2">
-        <v>-92.10361953460276</v>
+        <v>-92.10361953460112</v>
       </c>
       <c r="S2">
-        <v>151.0052246358092</v>
+        <v>151.0052246358107</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.022838679026473</v>
+        <v>1.022838679026454</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366206</v>
+        <v>0.7448705945365925</v>
       </c>
       <c r="P3">
-        <v>0.8551123540217649</v>
+        <v>0.8551123540217653</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248193</v>
+        <v>20.6770903724824</v>
       </c>
       <c r="R3">
-        <v>-104.1311854330021</v>
+        <v>-104.1311854330001</v>
       </c>
       <c r="S3">
-        <v>155.0163347176377</v>
+        <v>155.0163347176394</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901753</v>
+        <v>0.9691149430901568</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251148</v>
+        <v>0.5884255246250912</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.8567021221551269</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872723</v>
+        <v>17.29967291872774</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673475</v>
       </c>
       <c r="S4">
-        <v>160.3429768147775</v>
+        <v>160.342976814779</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2731,55 +2731,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289413</v>
+        <v>1.372057420289384</v>
       </c>
       <c r="D5">
-        <v>1.372057420289413</v>
+        <v>1.372057420289384</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.84315441895432</v>
+        <v>15.84315441895398</v>
       </c>
       <c r="G5">
-        <v>15.84315441895432</v>
+        <v>15.84315441895398</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.935346560274262</v>
+        <v>0.9353465602742435</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357798</v>
+        <v>0.4850955530357596</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741073</v>
+        <v>0.8618501377741118</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875883</v>
+        <v>14.83811452875937</v>
       </c>
       <c r="R5">
-        <v>-99.0448597533925</v>
+        <v>-99.04485975338926</v>
       </c>
       <c r="S5">
-        <v>163.8634513655829</v>
+        <v>163.8634513655844</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9520111306336769</v>
+        <v>0.9520111306336583</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011799</v>
+        <v>0.536626496501158</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454927</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904602</v>
+        <v>16.09072026904655</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721693</v>
+        <v>-100.4551748721664</v>
       </c>
       <c r="S6">
-        <v>162.1084886349017</v>
+        <v>162.1084886349032</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000734427743673</v>
+        <v>1.000734427743656</v>
       </c>
       <c r="O2">
-        <v>0.9413695280821804</v>
+        <v>0.9413695280821542</v>
       </c>
       <c r="P2">
-        <v>0.9703704959111742</v>
+        <v>0.9703704959111705</v>
       </c>
       <c r="Q2">
-        <v>28.0357480611579</v>
+        <v>28.03574806115834</v>
       </c>
       <c r="R2">
-        <v>-92.10361953460276</v>
+        <v>-92.10361953460112</v>
       </c>
       <c r="S2">
-        <v>151.0052246358092</v>
+        <v>151.0052246358107</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.022838679026473</v>
+        <v>1.022838679026454</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366206</v>
+        <v>0.7448705945365925</v>
       </c>
       <c r="P3">
-        <v>0.8551123540217649</v>
+        <v>0.8551123540217653</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248193</v>
+        <v>20.6770903724824</v>
       </c>
       <c r="R3">
-        <v>-104.1311854330021</v>
+        <v>-104.1311854330001</v>
       </c>
       <c r="S3">
-        <v>155.0163347176377</v>
+        <v>155.0163347176394</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901753</v>
+        <v>0.9691149430901568</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251148</v>
+        <v>0.5884255246250912</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.8567021221551269</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872723</v>
+        <v>17.29967291872774</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673475</v>
       </c>
       <c r="S4">
-        <v>160.3429768147775</v>
+        <v>160.342976814779</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3098,55 +3098,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289413</v>
+        <v>1.372057420289384</v>
       </c>
       <c r="D5">
-        <v>1.372057420289413</v>
+        <v>1.372057420289384</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.84315441895432</v>
+        <v>15.84315441895398</v>
       </c>
       <c r="G5">
-        <v>15.84315441895432</v>
+        <v>15.84315441895398</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.935346560274262</v>
+        <v>0.9353465602742435</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357798</v>
+        <v>0.4850955530357596</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741073</v>
+        <v>0.8618501377741118</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875883</v>
+        <v>14.83811452875937</v>
       </c>
       <c r="R5">
-        <v>-99.0448597533925</v>
+        <v>-99.04485975338926</v>
       </c>
       <c r="S5">
-        <v>163.8634513655829</v>
+        <v>163.8634513655844</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9520111306336769</v>
+        <v>0.9520111306336583</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011799</v>
+        <v>0.536626496501158</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454927</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904602</v>
+        <v>16.09072026904655</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721693</v>
+        <v>-100.4551748721664</v>
       </c>
       <c r="S6">
-        <v>162.1084886349017</v>
+        <v>162.1084886349032</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034915933505043</v>
+        <v>1.100880980171489</v>
       </c>
       <c r="O2">
-        <v>1.100000023846758</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.072889399487496</v>
+        <v>1.100993150198154</v>
       </c>
       <c r="Q2">
-        <v>29.75481595318827</v>
+        <v>29.96678740378751</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>146.8697059428057</v>
+        <v>150.023090032564</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7609560464908357</v>
+        <v>1.104801495156838</v>
       </c>
       <c r="O3">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P3">
-        <v>1.015884786040974</v>
+        <v>1.105087818528922</v>
       </c>
       <c r="Q3">
-        <v>26.88502623070272</v>
+        <v>29.8391423713908</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>131.9202912518292</v>
+        <v>150.1349878455606</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6610137647886279</v>
+        <v>1.105421670251499</v>
       </c>
       <c r="O4">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P4">
-        <v>0.9390945423913145</v>
+        <v>1.106991269431841</v>
       </c>
       <c r="Q4">
-        <v>31.74094005403052</v>
+        <v>29.74361708705894</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S4">
-        <v>126.770269005438</v>
+        <v>150.1145137597982</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.965638532986287</v>
+        <v>0.0494387826352656</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>34.2442441067752</v>
+        <v>0.5708698892575599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.241857277659229</v>
+        <v>0.9289501420149961</v>
       </c>
       <c r="I5">
-        <v>3.316292621791103</v>
+        <v>-777.3317494373634</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653871</v>
+        <v>0.9743985900788621</v>
       </c>
       <c r="K5">
-        <v>3.291772033564895</v>
+        <v>3.29177203356184</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606022</v>
+        <v>0.9743985902723074</v>
       </c>
       <c r="M5">
-        <v>3.291772033564857</v>
+        <v>3.291772033564305</v>
       </c>
       <c r="N5">
-        <v>0.5977509891594077</v>
+        <v>1.105836825769992</v>
       </c>
       <c r="O5">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P5">
-        <v>0.8927074845834405</v>
+        <v>1.1082603150057</v>
       </c>
       <c r="Q5">
-        <v>35.86071255927417</v>
+        <v>29.67999320374503</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S5">
-        <v>122.865418409526</v>
+        <v>150.1009034420875</v>
       </c>
       <c r="T5">
-        <v>2.965638532986288</v>
+        <v>0.04943878263526559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6289767000461928</v>
+        <v>1.105629077593005</v>
       </c>
       <c r="O6">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P6">
-        <v>0.9153696380915493</v>
+        <v>1.107625784406158</v>
       </c>
       <c r="Q6">
-        <v>33.69725639565334</v>
+        <v>29.7117991728279</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>124.867304464355</v>
+        <v>150.1077047024847</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034915933505043</v>
+        <v>1.100880980171489</v>
       </c>
       <c r="O2">
-        <v>1.100000023846758</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.072889399487496</v>
+        <v>1.100993150198154</v>
       </c>
       <c r="Q2">
-        <v>29.75481595318827</v>
+        <v>29.96678740378751</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>146.8697059428057</v>
+        <v>150.023090032564</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7609560464908357</v>
+        <v>1.104801495156838</v>
       </c>
       <c r="O3">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P3">
-        <v>1.015884786040974</v>
+        <v>1.105087818528922</v>
       </c>
       <c r="Q3">
-        <v>26.88502623070272</v>
+        <v>29.8391423713908</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>131.9202912518292</v>
+        <v>150.1349878455606</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6610137647886279</v>
+        <v>1.105421670251499</v>
       </c>
       <c r="O4">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P4">
-        <v>0.9390945423913145</v>
+        <v>1.106991269431841</v>
       </c>
       <c r="Q4">
-        <v>31.74094005403052</v>
+        <v>29.74361708705894</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S4">
-        <v>126.770269005438</v>
+        <v>150.1145137597982</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.965638532986287</v>
+        <v>0.0494387826352656</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>34.2442441067752</v>
+        <v>0.5708698892575599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.241857277659229</v>
+        <v>0.9289501420149961</v>
       </c>
       <c r="I5">
-        <v>3.316292621791103</v>
+        <v>-777.3317494373634</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653871</v>
+        <v>0.9743985900788621</v>
       </c>
       <c r="K5">
-        <v>3.291772033564895</v>
+        <v>3.29177203356184</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606022</v>
+        <v>0.9743985902723074</v>
       </c>
       <c r="M5">
-        <v>3.291772033564857</v>
+        <v>3.291772033564305</v>
       </c>
       <c r="N5">
-        <v>0.5977509891594077</v>
+        <v>1.105836825769992</v>
       </c>
       <c r="O5">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P5">
-        <v>0.8927074845834405</v>
+        <v>1.1082603150057</v>
       </c>
       <c r="Q5">
-        <v>35.86071255927417</v>
+        <v>29.67999320374503</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S5">
-        <v>122.865418409526</v>
+        <v>150.1009034420875</v>
       </c>
       <c r="T5">
-        <v>2.965638532986288</v>
+        <v>0.04943878263526559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6289767000461928</v>
+        <v>1.105629077593005</v>
       </c>
       <c r="O6">
-        <v>1.100000023847591</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P6">
-        <v>0.9153696380915493</v>
+        <v>1.107625784406158</v>
       </c>
       <c r="Q6">
-        <v>33.69725639565334</v>
+        <v>29.7117991728279</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>124.867304464355</v>
+        <v>150.1077047024847</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.075564718964413</v>
+        <v>1.1008850982533</v>
       </c>
       <c r="O2">
-        <v>1.100000023843692</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.09071086128997</v>
+        <v>1.101021387990018</v>
       </c>
       <c r="Q2">
-        <v>29.83428438264318</v>
+        <v>29.96521345746427</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.8063690200196</v>
+        <v>150.0224872829276</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9729595125737946</v>
+        <v>1.104831873036841</v>
       </c>
       <c r="O3">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P3">
-        <v>1.063365601352564</v>
+        <v>1.105239041609076</v>
       </c>
       <c r="Q3">
-        <v>28.63838103000246</v>
+        <v>29.8309798019442</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S3">
-        <v>143.4218045545961</v>
+        <v>150.1322308580896</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9339612179777191</v>
+        <v>1.105426956559577</v>
       </c>
       <c r="O4">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P4">
-        <v>1.029096244612097</v>
+        <v>1.107171362499177</v>
       </c>
       <c r="Q4">
-        <v>29.86765957962364</v>
+        <v>29.73295816262105</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S4">
-        <v>141.9071041985719</v>
+        <v>150.1093683151259</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.119863227965394</v>
+        <v>0.05040628762113673</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.93106672242767</v>
+        <v>0.5820416745382598</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.241857277659229</v>
+        <v>0.9289501420149961</v>
       </c>
       <c r="I5">
-        <v>3.316292621791103</v>
+        <v>-777.3317494373634</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653871</v>
+        <v>0.9743985900788621</v>
       </c>
       <c r="K5">
-        <v>3.291772033564895</v>
+        <v>3.29177203356184</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606022</v>
+        <v>0.9743985902723074</v>
       </c>
       <c r="M5">
-        <v>3.291772033564857</v>
+        <v>3.291772033564305</v>
       </c>
       <c r="N5">
-        <v>0.90821824929312</v>
+        <v>1.105825474741675</v>
       </c>
       <c r="O5">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P5">
-        <v>1.006672142415852</v>
+        <v>1.108459674078283</v>
       </c>
       <c r="Q5">
-        <v>30.74556405508115</v>
+        <v>29.66766913678897</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S5">
-        <v>140.8404969738619</v>
+        <v>150.094170904835</v>
       </c>
       <c r="T5">
-        <v>1.119863227965394</v>
+        <v>0.05040628762113671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.921062708103362</v>
+        <v>1.105626036196422</v>
       </c>
       <c r="O6">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P6">
-        <v>1.017840105926381</v>
+        <v>1.107815508546172</v>
       </c>
       <c r="Q6">
-        <v>30.30047769481536</v>
+        <v>29.70030776641746</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999812</v>
       </c>
       <c r="S6">
-        <v>141.379675124947</v>
+        <v>150.1017651915964</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.075564718964413</v>
+        <v>1.1008850982533</v>
       </c>
       <c r="O2">
-        <v>1.100000023843692</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.09071086128997</v>
+        <v>1.101021387990018</v>
       </c>
       <c r="Q2">
-        <v>29.83428438264318</v>
+        <v>29.96521345746427</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.8063690200196</v>
+        <v>150.0224872829276</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9729595125737946</v>
+        <v>1.104831873036841</v>
       </c>
       <c r="O3">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P3">
-        <v>1.063365601352564</v>
+        <v>1.105239041609076</v>
       </c>
       <c r="Q3">
-        <v>28.63838103000246</v>
+        <v>29.8309798019442</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S3">
-        <v>143.4218045545961</v>
+        <v>150.1322308580896</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9339612179777191</v>
+        <v>1.105426956559577</v>
       </c>
       <c r="O4">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P4">
-        <v>1.029096244612097</v>
+        <v>1.107171362499177</v>
       </c>
       <c r="Q4">
-        <v>29.86765957962364</v>
+        <v>29.73295816262105</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S4">
-        <v>141.9071041985719</v>
+        <v>150.1093683151259</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.119863227965394</v>
+        <v>0.05040628762113673</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.93106672242767</v>
+        <v>0.5820416745382598</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.241857277659229</v>
+        <v>0.9289501420149961</v>
       </c>
       <c r="I5">
-        <v>3.316292621791103</v>
+        <v>-777.3317494373634</v>
       </c>
       <c r="J5">
-        <v>0.9743985901653871</v>
+        <v>0.9743985900788621</v>
       </c>
       <c r="K5">
-        <v>3.291772033564895</v>
+        <v>3.29177203356184</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606022</v>
+        <v>0.9743985902723074</v>
       </c>
       <c r="M5">
-        <v>3.291772033564857</v>
+        <v>3.291772033564305</v>
       </c>
       <c r="N5">
-        <v>0.90821824929312</v>
+        <v>1.105825474741675</v>
       </c>
       <c r="O5">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P5">
-        <v>1.006672142415852</v>
+        <v>1.108459674078283</v>
       </c>
       <c r="Q5">
-        <v>30.74556405508115</v>
+        <v>29.66766913678897</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S5">
-        <v>140.8404969738619</v>
+        <v>150.094170904835</v>
       </c>
       <c r="T5">
-        <v>1.119863227965394</v>
+        <v>0.05040628762113671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.921062708103362</v>
+        <v>1.105626036196422</v>
       </c>
       <c r="O6">
-        <v>1.100000023844148</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P6">
-        <v>1.017840105926381</v>
+        <v>1.107815508546172</v>
       </c>
       <c r="Q6">
-        <v>30.30047769481536</v>
+        <v>29.70030776641746</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999812</v>
       </c>
       <c r="S6">
-        <v>141.379675124947</v>
+        <v>150.1017651915964</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.956526534908854</v>
+        <v>1.000908242812594</v>
       </c>
       <c r="O2">
-        <v>0.9999999999971002</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="P2">
-        <v>0.9939549572529294</v>
+        <v>1.0010277061996</v>
       </c>
       <c r="Q2">
-        <v>28.98390764927445</v>
+        <v>29.96208596644668</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.3323828647459</v>
+        <v>150.0260547633114</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7989049168991053</v>
+        <v>1.004558212297477</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>1.002851581405505</v>
+        <v>1.004853738189899</v>
       </c>
       <c r="Q3">
-        <v>23.32074433933269</v>
+        <v>29.83048955118011</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999659</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>137.0165606179199</v>
+        <v>150.1401370476989</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7027386696862242</v>
+        <v>1.00457766948852</v>
       </c>
       <c r="O4">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P4">
-        <v>0.9230280158040127</v>
+        <v>1.007113131085487</v>
       </c>
       <c r="Q4">
-        <v>27.17342557315792</v>
+        <v>29.68181392192791</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>132.6338006561203</v>
+        <v>150.0660829571587</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.872223210255257</v>
+        <v>0.04495655472790494</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.61857148847876</v>
+        <v>0.5191135794798812</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>1.77981201200764</v>
       </c>
       <c r="I5">
-        <v>3.289099158714226</v>
+        <v>-777.3252495510931</v>
       </c>
       <c r="J5">
-        <v>1.779351894012611</v>
+        <v>1.779351893954173</v>
       </c>
       <c r="K5">
-        <v>3.399730879243826</v>
+        <v>3.399730879239899</v>
       </c>
       <c r="L5">
-        <v>1.779351893992857</v>
+        <v>1.779351894003534</v>
       </c>
       <c r="M5">
-        <v>3.399730879243858</v>
+        <v>3.399730879244562</v>
       </c>
       <c r="N5">
-        <v>0.6408314607524356</v>
+        <v>1.004594398719873</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P5">
-        <v>0.8732631958338907</v>
+        <v>1.008620324196562</v>
       </c>
       <c r="Q5">
-        <v>30.37469145387966</v>
+        <v>29.5827004678415</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999612</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>129.279728539824</v>
+        <v>150.0168979359101</v>
       </c>
       <c r="T5">
-        <v>1.872223210255257</v>
+        <v>0.04495655472790493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6715234956965787</v>
+        <v>1.004585658338429</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P6">
-        <v>0.8977611984044024</v>
+        <v>1.007866634801307</v>
       </c>
       <c r="Q6">
-        <v>28.7002875605917</v>
+        <v>29.63225678225686</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999621</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>131.0032388114164</v>
+        <v>150.0414720583526</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.956526534908854</v>
+        <v>1.000908242812594</v>
       </c>
       <c r="O2">
-        <v>0.9999999999971002</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="P2">
-        <v>0.9939549572529294</v>
+        <v>1.0010277061996</v>
       </c>
       <c r="Q2">
-        <v>28.98390764927445</v>
+        <v>29.96208596644668</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.3323828647459</v>
+        <v>150.0260547633114</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7989049168991053</v>
+        <v>1.004558212297477</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>1.002851581405505</v>
+        <v>1.004853738189899</v>
       </c>
       <c r="Q3">
-        <v>23.32074433933269</v>
+        <v>29.83048955118011</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999659</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>137.0165606179199</v>
+        <v>150.1401370476989</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7027386696862242</v>
+        <v>1.00457766948852</v>
       </c>
       <c r="O4">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P4">
-        <v>0.9230280158040127</v>
+        <v>1.007113131085487</v>
       </c>
       <c r="Q4">
-        <v>27.17342557315792</v>
+        <v>29.68181392192791</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>132.6338006561203</v>
+        <v>150.0660829571587</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.872223210255257</v>
+        <v>0.04495655472790494</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.61857148847876</v>
+        <v>0.5191135794798812</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>1.77981201200764</v>
       </c>
       <c r="I5">
-        <v>3.289099158714226</v>
+        <v>-777.3252495510931</v>
       </c>
       <c r="J5">
-        <v>1.779351894012611</v>
+        <v>1.779351893954173</v>
       </c>
       <c r="K5">
-        <v>3.399730879243826</v>
+        <v>3.399730879239899</v>
       </c>
       <c r="L5">
-        <v>1.779351893992857</v>
+        <v>1.779351894003534</v>
       </c>
       <c r="M5">
-        <v>3.399730879243858</v>
+        <v>3.399730879244562</v>
       </c>
       <c r="N5">
-        <v>0.6408314607524356</v>
+        <v>1.004594398719873</v>
       </c>
       <c r="O5">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P5">
-        <v>0.8732631958338907</v>
+        <v>1.008620324196562</v>
       </c>
       <c r="Q5">
-        <v>30.37469145387966</v>
+        <v>29.5827004678415</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999612</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>129.279728539824</v>
+        <v>150.0168979359101</v>
       </c>
       <c r="T5">
-        <v>1.872223210255257</v>
+        <v>0.04495655472790493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6715234956965787</v>
+        <v>1.004585658338429</v>
       </c>
       <c r="O6">
-        <v>1.000000000000246</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P6">
-        <v>0.8977611984044024</v>
+        <v>1.007866634801307</v>
       </c>
       <c r="Q6">
-        <v>28.7002875605917</v>
+        <v>29.63225678225686</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999621</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>131.0032388114164</v>
+        <v>150.0414720583526</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9788250264939676</v>
+        <v>1.000912299816114</v>
       </c>
       <c r="O2">
-        <v>0.9999999999987513</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="P2">
-        <v>0.9944986720592481</v>
+        <v>1.001056813058097</v>
       </c>
       <c r="Q2">
-        <v>29.67089719477782</v>
+        <v>29.96029520213874</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.7806392795754</v>
+        <v>150.0253587201647</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8996093847952041</v>
+        <v>1.00458603057134</v>
       </c>
       <c r="O3">
-        <v>1.000000000000236</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P3">
-        <v>0.9831333439412834</v>
+        <v>1.004997330354825</v>
       </c>
       <c r="Q3">
-        <v>27.93019160672836</v>
+        <v>29.82193040350966</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>143.9455372448162</v>
+        <v>150.137187855544</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8594200863260637</v>
+        <v>1.00455321938756</v>
       </c>
       <c r="O4">
-        <v>1.000000000000236</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P4">
-        <v>0.9381955410360698</v>
+        <v>1.007273970347099</v>
       </c>
       <c r="Q4">
-        <v>29.96043650243489</v>
+        <v>29.67036186399379</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>142.5256493572003</v>
+        <v>150.0591054503227</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8769707240428679</v>
+        <v>0.04583360606114418</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.12638567195142</v>
+        <v>0.5292408959466571</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>1.77981201200764</v>
       </c>
       <c r="I5">
-        <v>3.289099158714226</v>
+        <v>-777.3252495510931</v>
       </c>
       <c r="J5">
-        <v>1.779351894012611</v>
+        <v>1.779351893954173</v>
       </c>
       <c r="K5">
-        <v>3.399730879243826</v>
+        <v>3.399730879239899</v>
       </c>
       <c r="L5">
-        <v>1.779351893992857</v>
+        <v>1.779351894003534</v>
       </c>
       <c r="M5">
-        <v>3.399730879243858</v>
+        <v>3.399730879244562</v>
       </c>
       <c r="N5">
-        <v>0.8332746221838921</v>
+        <v>1.004535250938051</v>
       </c>
       <c r="O5">
-        <v>1.000000000000236</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P5">
-        <v>0.9085834169431387</v>
+        <v>1.008792765721043</v>
       </c>
       <c r="Q5">
-        <v>31.42153392358027</v>
+        <v>29.56931112855212</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>141.5014391686906</v>
+        <v>150.0072463715813</v>
       </c>
       <c r="T5">
-        <v>0.8769707240428678</v>
+        <v>0.04583360606114417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8462785742490466</v>
+        <v>1.004543844580223</v>
       </c>
       <c r="O6">
-        <v>1.000000000000236</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.9233526055807162</v>
+        <v>1.00803326480799</v>
       </c>
       <c r="Q6">
-        <v>30.67970050241876</v>
+        <v>29.61983694815398</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>142.0217558161132</v>
+        <v>150.0331563770373</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9788250264939676</v>
+        <v>1.000912299816114</v>
       </c>
       <c r="O2">
-        <v>0.9999999999987513</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="P2">
-        <v>0.9944986720592481</v>
+        <v>1.001056813058097</v>
       </c>
       <c r="Q2">
-        <v>29.67089719477782</v>
+        <v>29.96029520213874</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.7806392795754</v>
+        <v>150.0253587201647</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8996093847952041</v>
+        <v>1.00458603057134</v>
       </c>
       <c r="O3">
-        <v>1.000000000000236</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P3">
-        <v>0.9831333439412834</v>
+        <v>1.004997330354825</v>
       </c>
       <c r="Q3">
-        <v>27.93019160672836</v>
+        <v>29.82193040350966</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>143.9455372448162</v>
+        <v>150.137187855544</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8594200863260637</v>
+        <v>1.00455321938756</v>
       </c>
       <c r="O4">
-        <v>1.000000000000236</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P4">
-        <v>0.9381955410360698</v>
+        <v>1.007273970347099</v>
       </c>
       <c r="Q4">
-        <v>29.96043650243489</v>
+        <v>29.67036186399379</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>142.5256493572003</v>
+        <v>150.0591054503227</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8769707240428679</v>
+        <v>0.04583360606114418</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.12638567195142</v>
+        <v>0.5292408959466571</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.95153542848486</v>
+        <v>1.77981201200764</v>
       </c>
       <c r="I5">
-        <v>3.289099158714226</v>
+        <v>-777.3252495510931</v>
       </c>
       <c r="J5">
-        <v>1.779351894012611</v>
+        <v>1.779351893954173</v>
       </c>
       <c r="K5">
-        <v>3.399730879243826</v>
+        <v>3.399730879239899</v>
       </c>
       <c r="L5">
-        <v>1.779351893992857</v>
+        <v>1.779351894003534</v>
       </c>
       <c r="M5">
-        <v>3.399730879243858</v>
+        <v>3.399730879244562</v>
       </c>
       <c r="N5">
-        <v>0.8332746221838921</v>
+        <v>1.004535250938051</v>
       </c>
       <c r="O5">
-        <v>1.000000000000236</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P5">
-        <v>0.9085834169431387</v>
+        <v>1.008792765721043</v>
       </c>
       <c r="Q5">
-        <v>31.42153392358027</v>
+        <v>29.56931112855212</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>141.5014391686906</v>
+        <v>150.0072463715813</v>
       </c>
       <c r="T5">
-        <v>0.8769707240428678</v>
+        <v>0.04583360606114417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8462785742490466</v>
+        <v>1.004543844580223</v>
       </c>
       <c r="O6">
-        <v>1.000000000000236</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.9233526055807162</v>
+        <v>1.00803326480799</v>
       </c>
       <c r="Q6">
-        <v>30.67970050241876</v>
+        <v>29.61983694815398</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>142.0217558161132</v>
+        <v>150.0331563770373</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.055552377385808</v>
+        <v>1.079076288390117</v>
       </c>
       <c r="O2">
-        <v>0.9618627255198325</v>
+        <v>0.9618627255196575</v>
       </c>
       <c r="P2">
-        <v>1.04909403366875</v>
+        <v>1.055560884319474</v>
       </c>
       <c r="Q2">
-        <v>25.96575842213292</v>
+        <v>26.45502319679553</v>
       </c>
       <c r="R2">
-        <v>-91.57079613675083</v>
+        <v>-91.57079613676139</v>
       </c>
       <c r="S2">
-        <v>151.5770182876765</v>
+        <v>152.9047176598685</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9621174752189684</v>
+        <v>1.059714659006624</v>
       </c>
       <c r="O3">
-        <v>0.4199934651635912</v>
+        <v>0.4199934651620358</v>
       </c>
       <c r="P3">
-        <v>0.8342369736763321</v>
+        <v>0.8863448308964449</v>
       </c>
       <c r="Q3">
-        <v>5.264103908123205</v>
+        <v>10.35082243815098</v>
       </c>
       <c r="R3">
-        <v>-114.9022326533465</v>
+        <v>-114.9022326535606</v>
       </c>
       <c r="S3">
-        <v>159.4619711765072</v>
+        <v>167.5859662032217</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8619446720938588</v>
+        <v>0.9926747663194243</v>
       </c>
       <c r="O4">
-        <v>0.1679973860678973</v>
+        <v>0.1679973860669261</v>
       </c>
       <c r="P4">
-        <v>0.8124916594760545</v>
+        <v>0.9222224953875262</v>
       </c>
       <c r="Q4">
-        <v>-2.35928826741323</v>
+        <v>4.379355846408533</v>
       </c>
       <c r="R4">
-        <v>-114.9022326483781</v>
+        <v>-114.9022326490543</v>
       </c>
       <c r="S4">
-        <v>166.6313439133924</v>
+        <v>175.236892341468</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.996283590338438</v>
+        <v>3.207760701896772</v>
       </c>
       <c r="D5">
-        <v>2.675884889875201</v>
+        <v>3.20074612831086</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>46.14510813279963</v>
+        <v>37.04003009472009</v>
       </c>
       <c r="G5">
-        <v>30.89845722979799</v>
+        <v>36.95903277575855</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>0.8053397867753369</v>
+        <v>0.9546483854540297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.805339786779107</v>
+        <v>0.9546483854558911</v>
       </c>
       <c r="Q5">
-        <v>-8.424349188687852</v>
+        <v>-0.03613201662334486</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.5756508112736</v>
+        <v>179.963867983399</v>
       </c>
       <c r="T5">
-        <v>2.278788989672653</v>
+        <v>0.02456216935585791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.832476192823643</v>
+        <v>0.972939120992356</v>
       </c>
       <c r="O6">
-        <v>0.08399869303639981</v>
+        <v>0.08399869303562309</v>
       </c>
       <c r="P6">
-        <v>0.8081628825939421</v>
+        <v>0.9376373638015566</v>
       </c>
       <c r="Q6">
-        <v>-5.288767133068754</v>
+        <v>2.214745007694027</v>
       </c>
       <c r="R6">
-        <v>-114.9022326397876</v>
+        <v>-114.9022326412339</v>
       </c>
       <c r="S6">
-        <v>169.0925620410557</v>
+        <v>177.641236293164</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.055552377385808</v>
+        <v>1.079076288390117</v>
       </c>
       <c r="O2">
-        <v>0.9618627255198325</v>
+        <v>0.9618627255196575</v>
       </c>
       <c r="P2">
-        <v>1.04909403366875</v>
+        <v>1.055560884319474</v>
       </c>
       <c r="Q2">
-        <v>25.96575842213292</v>
+        <v>26.45502319679553</v>
       </c>
       <c r="R2">
-        <v>-91.57079613675083</v>
+        <v>-91.57079613676139</v>
       </c>
       <c r="S2">
-        <v>151.5770182876765</v>
+        <v>152.9047176598685</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9621174752189684</v>
+        <v>1.059714659006624</v>
       </c>
       <c r="O3">
-        <v>0.4199934651635912</v>
+        <v>0.4199934651620358</v>
       </c>
       <c r="P3">
-        <v>0.8342369736763321</v>
+        <v>0.8863448308964449</v>
       </c>
       <c r="Q3">
-        <v>5.264103908123205</v>
+        <v>10.35082243815098</v>
       </c>
       <c r="R3">
-        <v>-114.9022326533465</v>
+        <v>-114.9022326535606</v>
       </c>
       <c r="S3">
-        <v>159.4619711765072</v>
+        <v>167.5859662032217</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8619446720938588</v>
+        <v>0.9926747663194243</v>
       </c>
       <c r="O4">
-        <v>0.1679973860678973</v>
+        <v>0.1679973860669261</v>
       </c>
       <c r="P4">
-        <v>0.8124916594760545</v>
+        <v>0.9222224953875262</v>
       </c>
       <c r="Q4">
-        <v>-2.35928826741323</v>
+        <v>4.379355846408533</v>
       </c>
       <c r="R4">
-        <v>-114.9022326483781</v>
+        <v>-114.9022326490543</v>
       </c>
       <c r="S4">
-        <v>166.6313439133924</v>
+        <v>175.236892341468</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.996283590338438</v>
+        <v>3.207760701896772</v>
       </c>
       <c r="D5">
-        <v>2.675884889875201</v>
+        <v>3.20074612831086</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>46.14510813279963</v>
+        <v>37.04003009472009</v>
       </c>
       <c r="G5">
-        <v>30.89845722979799</v>
+        <v>36.95903277575855</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>0.8053397867753369</v>
+        <v>0.9546483854540297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.805339786779107</v>
+        <v>0.9546483854558911</v>
       </c>
       <c r="Q5">
-        <v>-8.424349188687852</v>
+        <v>-0.03613201662334486</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.5756508112736</v>
+        <v>179.963867983399</v>
       </c>
       <c r="T5">
-        <v>2.278788989672653</v>
+        <v>0.02456216935585791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.832476192823643</v>
+        <v>0.972939120992356</v>
       </c>
       <c r="O6">
-        <v>0.08399869303639981</v>
+        <v>0.08399869303562309</v>
       </c>
       <c r="P6">
-        <v>0.8081628825939421</v>
+        <v>0.9376373638015566</v>
       </c>
       <c r="Q6">
-        <v>-5.288767133068754</v>
+        <v>2.214745007694027</v>
       </c>
       <c r="R6">
-        <v>-114.9022326397876</v>
+        <v>-114.9022326412339</v>
       </c>
       <c r="S6">
-        <v>169.0925620410557</v>
+        <v>177.641236293164</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089548016503988</v>
+        <v>1.100503964209839</v>
       </c>
       <c r="O2">
-        <v>1.05927814895234</v>
+        <v>1.059278148952192</v>
       </c>
       <c r="P2">
-        <v>1.076255584139657</v>
+        <v>1.079796019510407</v>
       </c>
       <c r="Q2">
-        <v>28.62282381128145</v>
+        <v>28.75866331215952</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733927</v>
+        <v>-91.28334085733987</v>
       </c>
       <c r="S2">
-        <v>150.0647785874366</v>
+        <v>150.6328473283986</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.060151144157488</v>
+        <v>1.114952171968512</v>
       </c>
       <c r="O3">
-        <v>0.9019226052886041</v>
+        <v>0.9019226052871494</v>
       </c>
       <c r="P3">
-        <v>0.9751233619932026</v>
+        <v>0.9920022748241892</v>
       </c>
       <c r="Q3">
-        <v>22.39311468259078</v>
+        <v>23.56432577636854</v>
       </c>
       <c r="R3">
-        <v>-98.66237050194189</v>
+        <v>-98.66237050195713</v>
       </c>
       <c r="S3">
-        <v>149.9865448643417</v>
+        <v>153.2886772582883</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021653193560684</v>
+        <v>1.095155434188241</v>
       </c>
       <c r="O4">
-        <v>0.8174068168698132</v>
+        <v>0.8174068168684441</v>
       </c>
       <c r="P4">
-        <v>0.9422844318457816</v>
+        <v>0.9780329246439202</v>
       </c>
       <c r="Q4">
-        <v>20.58469284095236</v>
+        <v>21.60748647868795</v>
       </c>
       <c r="R4">
-        <v>-98.97748982580568</v>
+        <v>-98.97748982582728</v>
       </c>
       <c r="S4">
-        <v>151.5989332630392</v>
+        <v>155.5950482534289</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.286962835605533</v>
+        <v>1.083739702894591</v>
       </c>
       <c r="D5">
-        <v>1.080740256403632</v>
+        <v>1.069009916338157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.86056679147797</v>
+        <v>12.51394818395354</v>
       </c>
       <c r="G5">
-        <v>12.47931355917404</v>
+        <v>12.34386325928428</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>0.9965895262864596</v>
+        <v>1.082688622514761</v>
       </c>
       <c r="O5">
-        <v>0.761079236389861</v>
+        <v>0.7610792363885496</v>
       </c>
       <c r="P5">
-        <v>0.9208309063949832</v>
+        <v>0.9696210723746768</v>
       </c>
       <c r="Q5">
-        <v>19.30229108876318</v>
+        <v>20.2641898630943</v>
       </c>
       <c r="R5">
-        <v>-99.226445685717</v>
+        <v>-99.22644568574368</v>
       </c>
       <c r="S5">
-        <v>152.7371614114739</v>
+        <v>157.167892746387</v>
       </c>
       <c r="T5">
-        <v>1.007279927116953</v>
+        <v>0.02480034713241255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.009058179164021</v>
+        <v>1.088847213782935</v>
       </c>
       <c r="O6">
-        <v>0.7892411664004864</v>
+        <v>0.789241166399146</v>
       </c>
       <c r="P6">
-        <v>0.9315117205543667</v>
+        <v>0.9737352702393216</v>
       </c>
       <c r="Q6">
-        <v>19.95145508857755</v>
+        <v>20.9396831186641</v>
       </c>
       <c r="R6">
-        <v>-99.09752580834025</v>
+        <v>-99.0975258083643</v>
       </c>
       <c r="S6">
-        <v>152.1614938489099</v>
+        <v>156.3780737553084</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089548016503988</v>
+        <v>1.100503964209839</v>
       </c>
       <c r="O2">
-        <v>1.05927814895234</v>
+        <v>1.059278148952192</v>
       </c>
       <c r="P2">
-        <v>1.076255584139657</v>
+        <v>1.079796019510407</v>
       </c>
       <c r="Q2">
-        <v>28.62282381128145</v>
+        <v>28.75866331215952</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733927</v>
+        <v>-91.28334085733987</v>
       </c>
       <c r="S2">
-        <v>150.0647785874366</v>
+        <v>150.6328473283986</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.060151144157488</v>
+        <v>1.114952171968512</v>
       </c>
       <c r="O3">
-        <v>0.9019226052886041</v>
+        <v>0.9019226052871494</v>
       </c>
       <c r="P3">
-        <v>0.9751233619932026</v>
+        <v>0.9920022748241892</v>
       </c>
       <c r="Q3">
-        <v>22.39311468259078</v>
+        <v>23.56432577636854</v>
       </c>
       <c r="R3">
-        <v>-98.66237050194189</v>
+        <v>-98.66237050195713</v>
       </c>
       <c r="S3">
-        <v>149.9865448643417</v>
+        <v>153.2886772582883</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021653193560684</v>
+        <v>1.095155434188241</v>
       </c>
       <c r="O4">
-        <v>0.8174068168698132</v>
+        <v>0.8174068168684441</v>
       </c>
       <c r="P4">
-        <v>0.9422844318457816</v>
+        <v>0.9780329246439202</v>
       </c>
       <c r="Q4">
-        <v>20.58469284095236</v>
+        <v>21.60748647868795</v>
       </c>
       <c r="R4">
-        <v>-98.97748982580568</v>
+        <v>-98.97748982582728</v>
       </c>
       <c r="S4">
-        <v>151.5989332630392</v>
+        <v>155.5950482534289</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.286962835605533</v>
+        <v>1.083739702894591</v>
       </c>
       <c r="D5">
-        <v>1.080740256403632</v>
+        <v>1.069009916338157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.86056679147797</v>
+        <v>12.51394818395354</v>
       </c>
       <c r="G5">
-        <v>12.47931355917404</v>
+        <v>12.34386325928428</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>0.9965895262864596</v>
+        <v>1.082688622514761</v>
       </c>
       <c r="O5">
-        <v>0.761079236389861</v>
+        <v>0.7610792363885496</v>
       </c>
       <c r="P5">
-        <v>0.9208309063949832</v>
+        <v>0.9696210723746768</v>
       </c>
       <c r="Q5">
-        <v>19.30229108876318</v>
+        <v>20.2641898630943</v>
       </c>
       <c r="R5">
-        <v>-99.226445685717</v>
+        <v>-99.22644568574368</v>
       </c>
       <c r="S5">
-        <v>152.7371614114739</v>
+        <v>157.167892746387</v>
       </c>
       <c r="T5">
-        <v>1.007279927116953</v>
+        <v>0.02480034713241255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.009058179164021</v>
+        <v>1.088847213782935</v>
       </c>
       <c r="O6">
-        <v>0.7892411664004864</v>
+        <v>0.789241166399146</v>
       </c>
       <c r="P6">
-        <v>0.9315117205543667</v>
+        <v>0.9737352702393216</v>
       </c>
       <c r="Q6">
-        <v>19.95145508857755</v>
+        <v>20.9396831186641</v>
       </c>
       <c r="R6">
-        <v>-99.09752580834025</v>
+        <v>-99.0975258083643</v>
       </c>
       <c r="S6">
-        <v>152.1614938489099</v>
+        <v>156.3780737553084</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9803936842332464</v>
+        <v>0.9931718508721173</v>
       </c>
       <c r="O2">
-        <v>0.8804584269833992</v>
+        <v>0.880458426984229</v>
       </c>
       <c r="P2">
-        <v>0.9498729969086612</v>
+        <v>0.9498290222589827</v>
       </c>
       <c r="Q2">
-        <v>25.72531894565409</v>
+        <v>26.26670323876053</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439401</v>
+        <v>-93.16654538438769</v>
       </c>
       <c r="S2">
-        <v>151.4775569702504</v>
+        <v>152.4317303307436</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785681644943141</v>
+        <v>1.022701393030771</v>
       </c>
       <c r="O3">
-        <v>0.5037062977967525</v>
+        <v>0.5037062977968553</v>
       </c>
       <c r="P3">
-        <v>0.7575222459525275</v>
+        <v>0.7652567087148735</v>
       </c>
       <c r="Q3">
-        <v>8.496486810135551</v>
+        <v>12.07817962859421</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883374</v>
+        <v>-121.7925562883246</v>
       </c>
       <c r="S3">
-        <v>158.0182951300053</v>
+        <v>163.7505146234565</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8523098466322235</v>
+        <v>0.924691576081623</v>
       </c>
       <c r="O4">
-        <v>0.2014825191279748</v>
+        <v>0.2014825191276496</v>
       </c>
       <c r="P4">
-        <v>0.7632782955608608</v>
+        <v>0.8191801751664796</v>
       </c>
       <c r="Q4">
-        <v>0.6871512892436236</v>
+        <v>5.274132497888736</v>
       </c>
       <c r="R4">
-        <v>-121.7925562834616</v>
+        <v>-121.7925562833751</v>
       </c>
       <c r="S4">
-        <v>167.8206483039592</v>
+        <v>173.9559685231429</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.056530518126798</v>
+        <v>2.611283018361104</v>
       </c>
       <c r="D5">
-        <v>2.24299034484626</v>
+        <v>2.60086003700886</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.29377434853627</v>
+        <v>30.15249907162163</v>
       </c>
       <c r="G5">
-        <v>25.8998215877344</v>
+        <v>30.03214484983211</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.7792462130273661</v>
+        <v>0.8679205250965479</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7792462130277945</v>
+        <v>0.8679205250970511</v>
       </c>
       <c r="Q5">
-        <v>-5.844677955625666</v>
+        <v>-0.06600770626970739</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.1553220439201</v>
+        <v>179.9339922933402</v>
       </c>
       <c r="T5">
-        <v>1.257268384710167</v>
+        <v>0.02233089046169019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8144557715482853</v>
+        <v>0.8953339487466633</v>
       </c>
       <c r="O6">
-        <v>0.1007412595726375</v>
+        <v>0.1007412595721698</v>
       </c>
       <c r="P6">
-        <v>0.7700842194129418</v>
+        <v>0.8424037033401557</v>
       </c>
       <c r="Q6">
-        <v>-2.432352280420594</v>
+        <v>2.688683269667735</v>
       </c>
       <c r="R6">
-        <v>-121.7925562750255</v>
+        <v>-121.7925562748161</v>
       </c>
       <c r="S6">
-        <v>171.0208062728633</v>
+        <v>177.0314113364507</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9803936842332464</v>
+        <v>0.9931718508721173</v>
       </c>
       <c r="O2">
-        <v>0.8804584269833992</v>
+        <v>0.880458426984229</v>
       </c>
       <c r="P2">
-        <v>0.9498729969086612</v>
+        <v>0.9498290222589827</v>
       </c>
       <c r="Q2">
-        <v>25.72531894565409</v>
+        <v>26.26670323876053</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439401</v>
+        <v>-93.16654538438769</v>
       </c>
       <c r="S2">
-        <v>151.4775569702504</v>
+        <v>152.4317303307436</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785681644943141</v>
+        <v>1.022701393030771</v>
       </c>
       <c r="O3">
-        <v>0.5037062977967525</v>
+        <v>0.5037062977968553</v>
       </c>
       <c r="P3">
-        <v>0.7575222459525275</v>
+        <v>0.7652567087148735</v>
       </c>
       <c r="Q3">
-        <v>8.496486810135551</v>
+        <v>12.07817962859421</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883374</v>
+        <v>-121.7925562883246</v>
       </c>
       <c r="S3">
-        <v>158.0182951300053</v>
+        <v>163.7505146234565</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8523098466322235</v>
+        <v>0.924691576081623</v>
       </c>
       <c r="O4">
-        <v>0.2014825191279748</v>
+        <v>0.2014825191276496</v>
       </c>
       <c r="P4">
-        <v>0.7632782955608608</v>
+        <v>0.8191801751664796</v>
       </c>
       <c r="Q4">
-        <v>0.6871512892436236</v>
+        <v>5.274132497888736</v>
       </c>
       <c r="R4">
-        <v>-121.7925562834616</v>
+        <v>-121.7925562833751</v>
       </c>
       <c r="S4">
-        <v>167.8206483039592</v>
+        <v>173.9559685231429</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.056530518126798</v>
+        <v>2.611283018361104</v>
       </c>
       <c r="D5">
-        <v>2.24299034484626</v>
+        <v>2.60086003700886</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.29377434853627</v>
+        <v>30.15249907162163</v>
       </c>
       <c r="G5">
-        <v>25.8998215877344</v>
+        <v>30.03214484983211</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.7792462130273661</v>
+        <v>0.8679205250965479</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7792462130277945</v>
+        <v>0.8679205250970511</v>
       </c>
       <c r="Q5">
-        <v>-5.844677955625666</v>
+        <v>-0.06600770626970739</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.1553220439201</v>
+        <v>179.9339922933402</v>
       </c>
       <c r="T5">
-        <v>1.257268384710167</v>
+        <v>0.02233089046169019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8144557715482853</v>
+        <v>0.8953339487466633</v>
       </c>
       <c r="O6">
-        <v>0.1007412595726375</v>
+        <v>0.1007412595721698</v>
       </c>
       <c r="P6">
-        <v>0.7700842194129418</v>
+        <v>0.8424037033401557</v>
       </c>
       <c r="Q6">
-        <v>-2.432352280420594</v>
+        <v>2.688683269667735</v>
       </c>
       <c r="R6">
-        <v>-121.7925562750255</v>
+        <v>-121.7925562748161</v>
       </c>
       <c r="S6">
-        <v>171.0208062728633</v>
+        <v>177.0314113364507</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9932829240276931</v>
+        <v>1.001788748453591</v>
       </c>
       <c r="O2">
-        <v>0.9615729355897115</v>
+        <v>0.9615729355902197</v>
       </c>
       <c r="P2">
-        <v>0.9781828272660023</v>
+        <v>0.9796432098507508</v>
       </c>
       <c r="Q2">
-        <v>28.463663569285</v>
+        <v>28.66772675189202</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889094</v>
+        <v>-91.51132863888891</v>
       </c>
       <c r="S2">
-        <v>150.0847065969062</v>
+        <v>150.6174231979114</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9812226637634061</v>
+        <v>1.019377311680197</v>
       </c>
       <c r="O3">
-        <v>0.8296997009405513</v>
+        <v>0.8296997009408467</v>
       </c>
       <c r="P3">
-        <v>0.894217156260952</v>
+        <v>0.8998829699186202</v>
       </c>
       <c r="Q3">
-        <v>22.36000667574771</v>
+        <v>23.68305841442444</v>
       </c>
       <c r="R3">
-        <v>-99.17392234673076</v>
+        <v>-99.17392234672536</v>
       </c>
       <c r="S3">
-        <v>150.0963711333174</v>
+        <v>152.9222112363556</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.925876212804025</v>
+        <v>0.9827801563680546</v>
       </c>
       <c r="O4">
-        <v>0.7246674127318381</v>
+        <v>0.7246674127320694</v>
       </c>
       <c r="P4">
-        <v>0.8680965969609499</v>
+        <v>0.8958583697753332</v>
       </c>
       <c r="Q4">
-        <v>20.43895050381151</v>
+        <v>21.39919057310059</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595966</v>
+        <v>-97.50360857594812</v>
       </c>
       <c r="S4">
-        <v>152.9236930997164</v>
+        <v>156.3144709772895</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.102175546000732</v>
+        <v>0.9336583516361555</v>
       </c>
       <c r="D5">
-        <v>0.8746446747641082</v>
+        <v>0.9192671618155535</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.72682696355491</v>
+        <v>10.78095801296553</v>
       </c>
       <c r="G5">
-        <v>10.09952676840661</v>
+        <v>10.61478286662786</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.8896165412108605</v>
+        <v>0.9593042216655384</v>
       </c>
       <c r="O5">
-        <v>0.6550793552705573</v>
+        <v>0.6550793552707489</v>
       </c>
       <c r="P5">
-        <v>0.8519162036884859</v>
+        <v>0.8949307821056459</v>
       </c>
       <c r="Q5">
-        <v>19.02649055485131</v>
+        <v>19.78147931914537</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653539</v>
+        <v>-96.09329345651857</v>
       </c>
       <c r="S5">
-        <v>154.901756168165</v>
+        <v>158.5877598229324</v>
       </c>
       <c r="T5">
-        <v>0.725642328567446</v>
+        <v>0.02254708757010462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9076774478799369</v>
+        <v>0.9709454427565501</v>
       </c>
       <c r="O6">
-        <v>0.6898212699570188</v>
+        <v>0.6898212699572296</v>
       </c>
       <c r="P6">
-        <v>0.8598782860650799</v>
+        <v>0.8952183888500104</v>
       </c>
       <c r="Q6">
-        <v>19.74682632163917</v>
+        <v>20.600113050377</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911629</v>
+        <v>-96.83401769910228</v>
       </c>
       <c r="S6">
-        <v>153.9034197562813</v>
+        <v>157.4505265670821</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9932829240276931</v>
+        <v>1.001788748453591</v>
       </c>
       <c r="O2">
-        <v>0.9615729355897115</v>
+        <v>0.9615729355902197</v>
       </c>
       <c r="P2">
-        <v>0.9781828272660023</v>
+        <v>0.9796432098507508</v>
       </c>
       <c r="Q2">
-        <v>28.463663569285</v>
+        <v>28.66772675189202</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889094</v>
+        <v>-91.51132863888891</v>
       </c>
       <c r="S2">
-        <v>150.0847065969062</v>
+        <v>150.6174231979114</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9812226637634061</v>
+        <v>1.019377311680197</v>
       </c>
       <c r="O3">
-        <v>0.8296997009405513</v>
+        <v>0.8296997009408467</v>
       </c>
       <c r="P3">
-        <v>0.894217156260952</v>
+        <v>0.8998829699186202</v>
       </c>
       <c r="Q3">
-        <v>22.36000667574771</v>
+        <v>23.68305841442444</v>
       </c>
       <c r="R3">
-        <v>-99.17392234673076</v>
+        <v>-99.17392234672536</v>
       </c>
       <c r="S3">
-        <v>150.0963711333174</v>
+        <v>152.9222112363556</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.925876212804025</v>
+        <v>0.9827801563680546</v>
       </c>
       <c r="O4">
-        <v>0.7246674127318381</v>
+        <v>0.7246674127320694</v>
       </c>
       <c r="P4">
-        <v>0.8680965969609499</v>
+        <v>0.8958583697753332</v>
       </c>
       <c r="Q4">
-        <v>20.43895050381151</v>
+        <v>21.39919057310059</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595966</v>
+        <v>-97.50360857594812</v>
       </c>
       <c r="S4">
-        <v>152.9236930997164</v>
+        <v>156.3144709772895</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.102175546000732</v>
+        <v>0.9336583516361555</v>
       </c>
       <c r="D5">
-        <v>0.8746446747641082</v>
+        <v>0.9192671618155535</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.72682696355491</v>
+        <v>10.78095801296553</v>
       </c>
       <c r="G5">
-        <v>10.09952676840661</v>
+        <v>10.61478286662786</v>
       </c>
       <c r="H5">
-        <v>11.95153542848476</v>
+        <v>1.779812012007087</v>
       </c>
       <c r="I5">
-        <v>3.289099158714421</v>
+        <v>-777.3252495510911</v>
       </c>
       <c r="J5">
-        <v>1.779351894016363</v>
+        <v>1.779351894041736</v>
       </c>
       <c r="K5">
-        <v>3.399730879285312</v>
+        <v>3.399730879337288</v>
       </c>
       <c r="L5">
-        <v>1.77935189399242</v>
+        <v>1.779351893986707</v>
       </c>
       <c r="M5">
-        <v>3.399730879243916</v>
+        <v>3.399730879252711</v>
       </c>
       <c r="N5">
-        <v>0.8896165412108605</v>
+        <v>0.9593042216655384</v>
       </c>
       <c r="O5">
-        <v>0.6550793552705573</v>
+        <v>0.6550793552707489</v>
       </c>
       <c r="P5">
-        <v>0.8519162036884859</v>
+        <v>0.8949307821056459</v>
       </c>
       <c r="Q5">
-        <v>19.02649055485131</v>
+        <v>19.78147931914537</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653539</v>
+        <v>-96.09329345651857</v>
       </c>
       <c r="S5">
-        <v>154.901756168165</v>
+        <v>158.5877598229324</v>
       </c>
       <c r="T5">
-        <v>0.725642328567446</v>
+        <v>0.02254708757010462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9076774478799369</v>
+        <v>0.9709454427565501</v>
       </c>
       <c r="O6">
-        <v>0.6898212699570188</v>
+        <v>0.6898212699572296</v>
       </c>
       <c r="P6">
-        <v>0.8598782860650799</v>
+        <v>0.8952183888500104</v>
       </c>
       <c r="Q6">
-        <v>19.74682632163917</v>
+        <v>20.600113050377</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911629</v>
+        <v>-96.83401769910228</v>
       </c>
       <c r="S6">
-        <v>153.9034197562813</v>
+        <v>157.4505265670821</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.078847846925941</v>
+        <v>1.078847846925953</v>
       </c>
       <c r="O2">
-        <v>0.9618627255197192</v>
+        <v>0.9618627255196744</v>
       </c>
       <c r="P2">
-        <v>1.05530912685228</v>
+        <v>1.055309126852294</v>
       </c>
       <c r="Q2">
-        <v>26.46268431694229</v>
+        <v>26.46268431694048</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676153</v>
+        <v>-91.5707961367616</v>
       </c>
       <c r="S2">
-        <v>152.8993938557652</v>
+        <v>152.8993938557668</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.058332742123209</v>
+        <v>1.058332742123222</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621026</v>
+        <v>0.4199934651620681</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134003</v>
+        <v>0.8849458407134325</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971095</v>
+        <v>10.36827052970986</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535644</v>
+        <v>-114.9022326535638</v>
       </c>
       <c r="S3">
-        <v>167.570584904511</v>
+        <v>167.5705849045123</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778326</v>
+        <v>0.9909306888778472</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669875</v>
+        <v>0.1679973860669614</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492232</v>
+        <v>0.9204173017492591</v>
       </c>
       <c r="Q4">
-        <v>4.4096204434041</v>
+        <v>4.409620443403311</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490686</v>
+        <v>-114.9022326490648</v>
       </c>
       <c r="S4">
-        <v>175.2518098001975</v>
+        <v>175.2518098001981</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,55 +10682,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390301</v>
       </c>
       <c r="D5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390301</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847899</v>
       </c>
       <c r="G5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847899</v>
       </c>
       <c r="H5">
-        <v>6.241857277659173</v>
+        <v>0.9289501420140406</v>
       </c>
       <c r="I5">
-        <v>3.316292621791281</v>
+        <v>-777.3317494373631</v>
       </c>
       <c r="J5">
-        <v>0.9743985902534745</v>
+        <v>0.9743985902941318</v>
       </c>
       <c r="K5">
-        <v>3.291772033553014</v>
+        <v>3.291772033629423</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603512</v>
+        <v>0.9743985902547178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564913</v>
+        <v>3.291772033574949</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039775</v>
+        <v>0.9526279648039921</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057686</v>
+        <v>0.9526279648058056</v>
       </c>
       <c r="Q5">
-        <v>-1.425008225192603E-11</v>
+        <v>-1.479433600185689E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999792</v>
+        <v>-179.999999999979</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679121</v>
+        <v>0.9710601884679267</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568283</v>
+        <v>0.08399869303565946</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509384</v>
+        <v>0.9357190172509749</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886393</v>
+        <v>2.248283018885715</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412656</v>
+        <v>-114.9022326412569</v>
       </c>
       <c r="S6">
-        <v>177.6667554660107</v>
+        <v>177.6667554660111</v>
       </c>
     </row>
   </sheetData>
